--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Copper_Price_Per_Ton_PCOPPUSDM.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Copper_Price_Per_Ton_PCOPPUSDM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="906">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1980-01-01</t>
@@ -1525,6 +1525,45 @@
     <t>2021-06-01</t>
   </si>
   <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
@@ -2654,6 +2693,45 @@
   </si>
   <si>
     <t>9631.5</t>
+  </si>
+  <si>
+    <t>9450.82045454546</t>
+  </si>
+  <si>
+    <t>9370.13857142857</t>
+  </si>
+  <si>
+    <t>9324.70954545455</t>
+  </si>
+  <si>
+    <t>9829.21904761905</t>
+  </si>
+  <si>
+    <t>9728.90454545454</t>
+  </si>
+  <si>
+    <t>9551.18</t>
+  </si>
+  <si>
+    <t>9782.3375</t>
+  </si>
+  <si>
+    <t>9943.175</t>
+  </si>
+  <si>
+    <t>10230.8939130435</t>
+  </si>
+  <si>
+    <t>10174.3476190476</t>
+  </si>
+  <si>
+    <t>9395.02727272727</t>
+  </si>
+  <si>
+    <t>9067.55181818182</t>
+  </si>
+  <si>
+    <t>7544.80952380952</t>
   </si>
 </sst>
 </file>
@@ -3011,7 +3089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E499"/>
+  <dimension ref="A1:E512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3048,7 +3126,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3065,7 +3143,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3082,7 +3160,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3099,7 +3177,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3116,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3133,7 +3211,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3150,7 +3228,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3167,7 +3245,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3184,7 +3262,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3201,7 +3279,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3218,7 +3296,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3235,7 +3313,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3252,7 +3330,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3269,7 +3347,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3286,7 +3364,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3303,7 +3381,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3320,7 +3398,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3337,7 +3415,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3354,7 +3432,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3371,7 +3449,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3388,7 +3466,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3405,7 +3483,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3422,7 +3500,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3439,7 +3517,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3456,7 +3534,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3473,7 +3551,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3490,7 +3568,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3507,7 +3585,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3524,7 +3602,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3541,7 +3619,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3558,7 +3636,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3575,7 +3653,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3592,7 +3670,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3609,7 +3687,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3626,7 +3704,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3643,7 +3721,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3660,7 +3738,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3677,7 +3755,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3694,7 +3772,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3711,7 +3789,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3728,7 +3806,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3745,7 +3823,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3762,7 +3840,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3779,7 +3857,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3796,7 +3874,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3813,7 +3891,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3830,7 +3908,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3847,7 +3925,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3864,7 +3942,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3881,7 +3959,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3898,7 +3976,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3915,7 +3993,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3932,7 +4010,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3949,7 +4027,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3966,7 +4044,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3983,7 +4061,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4000,7 +4078,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4017,7 +4095,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4034,7 +4112,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4051,7 +4129,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4068,7 +4146,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4085,7 +4163,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4102,7 +4180,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4119,7 +4197,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4136,7 +4214,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4153,7 +4231,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4170,7 +4248,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4187,7 +4265,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4204,7 +4282,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4221,7 +4299,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4238,7 +4316,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4255,7 +4333,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4272,7 +4350,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4289,7 +4367,7 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4306,7 +4384,7 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4323,7 +4401,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4340,7 +4418,7 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4357,7 +4435,7 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4374,7 +4452,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4391,7 +4469,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4408,7 +4486,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4425,7 +4503,7 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4442,7 +4520,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4459,7 +4537,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4476,7 +4554,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4493,7 +4571,7 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4510,7 +4588,7 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4527,7 +4605,7 @@
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4544,7 +4622,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4561,7 +4639,7 @@
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4578,7 +4656,7 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4595,7 +4673,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4612,7 +4690,7 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4629,7 +4707,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4646,7 +4724,7 @@
         <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4663,7 +4741,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4680,7 +4758,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4697,7 +4775,7 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4714,7 +4792,7 @@
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4731,7 +4809,7 @@
         <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4748,7 +4826,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4765,7 +4843,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4782,7 +4860,7 @@
         <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4799,7 +4877,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4816,7 +4894,7 @@
         <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4833,7 +4911,7 @@
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4850,7 +4928,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4867,7 +4945,7 @@
         <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4884,7 +4962,7 @@
         <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4901,7 +4979,7 @@
         <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4918,7 +4996,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4935,7 +5013,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4952,7 +5030,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4969,7 +5047,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4986,7 +5064,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5003,7 +5081,7 @@
         <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5020,7 +5098,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5037,7 +5115,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5054,7 +5132,7 @@
         <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5071,7 +5149,7 @@
         <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5088,7 +5166,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5105,7 +5183,7 @@
         <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5122,7 +5200,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5139,7 +5217,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5156,7 +5234,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5173,7 +5251,7 @@
         <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5190,7 +5268,7 @@
         <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5207,7 +5285,7 @@
         <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5224,7 +5302,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5241,7 +5319,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5258,7 +5336,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5275,7 +5353,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5292,7 +5370,7 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5309,7 +5387,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5326,7 +5404,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5343,7 +5421,7 @@
         <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5360,7 +5438,7 @@
         <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5377,7 +5455,7 @@
         <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5394,7 +5472,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5411,7 +5489,7 @@
         <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5428,7 +5506,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5445,7 +5523,7 @@
         <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5462,7 +5540,7 @@
         <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5479,7 +5557,7 @@
         <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5496,7 +5574,7 @@
         <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5513,7 +5591,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5530,7 +5608,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5547,7 +5625,7 @@
         <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5564,7 +5642,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5581,7 +5659,7 @@
         <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5598,7 +5676,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5615,7 +5693,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5632,7 +5710,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5649,7 +5727,7 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5666,7 +5744,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5683,7 +5761,7 @@
         <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5700,7 +5778,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5717,7 +5795,7 @@
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5734,7 +5812,7 @@
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5751,7 +5829,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5768,7 +5846,7 @@
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5785,7 +5863,7 @@
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5802,7 +5880,7 @@
         <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5819,7 +5897,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5836,7 +5914,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5853,7 +5931,7 @@
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5870,7 +5948,7 @@
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5887,7 +5965,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5904,7 +5982,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5921,7 +5999,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5938,7 +6016,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5955,7 +6033,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5972,7 +6050,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5989,7 +6067,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6006,7 +6084,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6023,7 +6101,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6040,7 +6118,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6057,7 +6135,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6074,7 +6152,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6091,7 +6169,7 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6108,7 +6186,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6125,7 +6203,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6142,7 +6220,7 @@
         <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6159,7 +6237,7 @@
         <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6176,7 +6254,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6193,7 +6271,7 @@
         <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6210,7 +6288,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6227,7 +6305,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6244,7 +6322,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6261,7 +6339,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6278,7 +6356,7 @@
         <v>195</v>
       </c>
       <c r="E192" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6295,7 +6373,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6312,7 +6390,7 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6329,7 +6407,7 @@
         <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6346,7 +6424,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6363,7 +6441,7 @@
         <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6380,7 +6458,7 @@
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6397,7 +6475,7 @@
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6414,7 +6492,7 @@
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6431,7 +6509,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6448,7 +6526,7 @@
         <v>205</v>
       </c>
       <c r="E202" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6465,7 +6543,7 @@
         <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6482,7 +6560,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6499,7 +6577,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6516,7 +6594,7 @@
         <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6533,7 +6611,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6550,7 +6628,7 @@
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6567,7 +6645,7 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6584,7 +6662,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6601,7 +6679,7 @@
         <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6618,7 +6696,7 @@
         <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6635,7 +6713,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6652,7 +6730,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6669,7 +6747,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6686,7 +6764,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6703,7 +6781,7 @@
         <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6720,7 +6798,7 @@
         <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6737,7 +6815,7 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6754,7 +6832,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6771,7 +6849,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6788,7 +6866,7 @@
         <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6805,7 +6883,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6822,7 +6900,7 @@
         <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6839,7 +6917,7 @@
         <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6856,7 +6934,7 @@
         <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6873,7 +6951,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6890,7 +6968,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6907,7 +6985,7 @@
         <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6924,7 +7002,7 @@
         <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6941,7 +7019,7 @@
         <v>234</v>
       </c>
       <c r="E231" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6958,7 +7036,7 @@
         <v>235</v>
       </c>
       <c r="E232" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6975,7 +7053,7 @@
         <v>236</v>
       </c>
       <c r="E233" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6992,7 +7070,7 @@
         <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7009,7 +7087,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7026,7 +7104,7 @@
         <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7043,7 +7121,7 @@
         <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7060,7 +7138,7 @@
         <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7077,7 +7155,7 @@
         <v>242</v>
       </c>
       <c r="E239" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7094,7 +7172,7 @@
         <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7111,7 +7189,7 @@
         <v>244</v>
       </c>
       <c r="E241" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7128,7 +7206,7 @@
         <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7145,7 +7223,7 @@
         <v>246</v>
       </c>
       <c r="E243" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7162,7 +7240,7 @@
         <v>247</v>
       </c>
       <c r="E244" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7179,7 +7257,7 @@
         <v>248</v>
       </c>
       <c r="E245" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7196,7 +7274,7 @@
         <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7213,7 +7291,7 @@
         <v>250</v>
       </c>
       <c r="E247" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7230,7 +7308,7 @@
         <v>251</v>
       </c>
       <c r="E248" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7247,7 +7325,7 @@
         <v>252</v>
       </c>
       <c r="E249" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7264,7 +7342,7 @@
         <v>253</v>
       </c>
       <c r="E250" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7281,7 +7359,7 @@
         <v>254</v>
       </c>
       <c r="E251" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7298,7 +7376,7 @@
         <v>255</v>
       </c>
       <c r="E252" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7315,7 +7393,7 @@
         <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7332,7 +7410,7 @@
         <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7349,7 +7427,7 @@
         <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7366,7 +7444,7 @@
         <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7383,7 +7461,7 @@
         <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7400,7 +7478,7 @@
         <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7417,7 +7495,7 @@
         <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7434,7 +7512,7 @@
         <v>263</v>
       </c>
       <c r="E260" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7451,7 +7529,7 @@
         <v>264</v>
       </c>
       <c r="E261" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7468,7 +7546,7 @@
         <v>265</v>
       </c>
       <c r="E262" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7485,7 +7563,7 @@
         <v>266</v>
       </c>
       <c r="E263" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7502,7 +7580,7 @@
         <v>267</v>
       </c>
       <c r="E264" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7519,7 +7597,7 @@
         <v>268</v>
       </c>
       <c r="E265" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7536,7 +7614,7 @@
         <v>269</v>
       </c>
       <c r="E266" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7553,7 +7631,7 @@
         <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7570,7 +7648,7 @@
         <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7587,7 +7665,7 @@
         <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7604,7 +7682,7 @@
         <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7621,7 +7699,7 @@
         <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7638,7 +7716,7 @@
         <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7655,7 +7733,7 @@
         <v>276</v>
       </c>
       <c r="E273" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7672,7 +7750,7 @@
         <v>277</v>
       </c>
       <c r="E274" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7689,7 +7767,7 @@
         <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7706,7 +7784,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7723,7 +7801,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7740,7 +7818,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7757,7 +7835,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7774,7 +7852,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7791,7 +7869,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7808,7 +7886,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7825,7 +7903,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7842,7 +7920,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7859,7 +7937,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7876,7 +7954,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7893,7 +7971,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7910,7 +7988,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7927,7 +8005,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7944,7 +8022,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7961,7 +8039,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7978,7 +8056,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7995,7 +8073,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8012,7 +8090,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8029,7 +8107,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8046,7 +8124,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8063,7 +8141,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8080,7 +8158,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8097,7 +8175,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8114,7 +8192,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8131,7 +8209,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8148,7 +8226,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8165,7 +8243,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8182,7 +8260,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8199,7 +8277,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8216,7 +8294,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8233,7 +8311,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8250,7 +8328,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8267,7 +8345,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8284,7 +8362,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8301,7 +8379,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8318,7 +8396,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8335,7 +8413,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8352,7 +8430,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8369,7 +8447,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8386,7 +8464,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8403,7 +8481,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8420,7 +8498,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8437,7 +8515,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8454,7 +8532,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8471,7 +8549,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8488,7 +8566,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8505,7 +8583,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8522,7 +8600,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8539,7 +8617,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8556,7 +8634,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8573,7 +8651,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8590,7 +8668,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8607,7 +8685,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8624,7 +8702,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8641,7 +8719,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8658,7 +8736,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8675,7 +8753,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8692,7 +8770,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8709,7 +8787,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8726,7 +8804,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8743,7 +8821,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8760,7 +8838,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8777,7 +8855,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8794,7 +8872,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8811,7 +8889,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8828,7 +8906,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8845,7 +8923,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8862,7 +8940,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8879,7 +8957,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8896,7 +8974,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8913,7 +8991,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8930,7 +9008,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8947,7 +9025,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8964,7 +9042,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8981,7 +9059,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8998,7 +9076,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9015,7 +9093,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9032,7 +9110,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9049,7 +9127,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9066,7 +9144,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9083,7 +9161,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9100,7 +9178,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9117,7 +9195,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9134,7 +9212,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9151,7 +9229,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9168,7 +9246,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9185,7 +9263,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9202,7 +9280,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9219,7 +9297,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9236,7 +9314,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9253,7 +9331,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9270,7 +9348,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9287,7 +9365,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9304,7 +9382,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9321,7 +9399,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9338,7 +9416,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9355,7 +9433,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9372,7 +9450,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9389,7 +9467,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9406,7 +9484,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9423,7 +9501,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9440,7 +9518,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9457,7 +9535,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9474,7 +9552,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9491,7 +9569,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9508,7 +9586,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9525,7 +9603,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9542,7 +9620,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9559,7 +9637,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9576,7 +9654,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9593,7 +9671,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9610,7 +9688,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9627,7 +9705,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9644,7 +9722,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9661,7 +9739,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9678,7 +9756,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9695,7 +9773,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9712,7 +9790,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9729,7 +9807,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9746,7 +9824,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9763,7 +9841,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9780,7 +9858,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9797,7 +9875,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9814,7 +9892,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9831,7 +9909,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9848,7 +9926,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9865,7 +9943,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9882,7 +9960,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9899,7 +9977,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -9916,7 +9994,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -9933,7 +10011,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -9950,7 +10028,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -9967,7 +10045,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -9984,7 +10062,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10001,7 +10079,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10018,7 +10096,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10035,7 +10113,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10052,7 +10130,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10069,7 +10147,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10086,7 +10164,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10103,7 +10181,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10120,7 +10198,7 @@
         <v>421</v>
       </c>
       <c r="E418" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10137,7 +10215,7 @@
         <v>422</v>
       </c>
       <c r="E419" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10154,7 +10232,7 @@
         <v>423</v>
       </c>
       <c r="E420" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10171,7 +10249,7 @@
         <v>424</v>
       </c>
       <c r="E421" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10188,7 +10266,7 @@
         <v>425</v>
       </c>
       <c r="E422" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10205,7 +10283,7 @@
         <v>426</v>
       </c>
       <c r="E423" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10222,7 +10300,7 @@
         <v>427</v>
       </c>
       <c r="E424" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10239,7 +10317,7 @@
         <v>428</v>
       </c>
       <c r="E425" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10256,7 +10334,7 @@
         <v>429</v>
       </c>
       <c r="E426" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10273,7 +10351,7 @@
         <v>430</v>
       </c>
       <c r="E427" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10290,7 +10368,7 @@
         <v>431</v>
       </c>
       <c r="E428" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10307,7 +10385,7 @@
         <v>432</v>
       </c>
       <c r="E429" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10324,7 +10402,7 @@
         <v>433</v>
       </c>
       <c r="E430" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10341,7 +10419,7 @@
         <v>434</v>
       </c>
       <c r="E431" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10358,7 +10436,7 @@
         <v>435</v>
       </c>
       <c r="E432" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10375,7 +10453,7 @@
         <v>436</v>
       </c>
       <c r="E433" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10392,7 +10470,7 @@
         <v>437</v>
       </c>
       <c r="E434" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10409,7 +10487,7 @@
         <v>438</v>
       </c>
       <c r="E435" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10426,7 +10504,7 @@
         <v>439</v>
       </c>
       <c r="E436" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10443,7 +10521,7 @@
         <v>440</v>
       </c>
       <c r="E437" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10460,7 +10538,7 @@
         <v>441</v>
       </c>
       <c r="E438" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10477,7 +10555,7 @@
         <v>442</v>
       </c>
       <c r="E439" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10494,7 +10572,7 @@
         <v>443</v>
       </c>
       <c r="E440" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10511,7 +10589,7 @@
         <v>444</v>
       </c>
       <c r="E441" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10528,7 +10606,7 @@
         <v>445</v>
       </c>
       <c r="E442" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10545,7 +10623,7 @@
         <v>446</v>
       </c>
       <c r="E443" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10562,7 +10640,7 @@
         <v>447</v>
       </c>
       <c r="E444" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10579,7 +10657,7 @@
         <v>448</v>
       </c>
       <c r="E445" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10596,7 +10674,7 @@
         <v>449</v>
       </c>
       <c r="E446" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10613,7 +10691,7 @@
         <v>450</v>
       </c>
       <c r="E447" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10630,7 +10708,7 @@
         <v>451</v>
       </c>
       <c r="E448" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10647,7 +10725,7 @@
         <v>452</v>
       </c>
       <c r="E449" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10664,7 +10742,7 @@
         <v>453</v>
       </c>
       <c r="E450" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10681,7 +10759,7 @@
         <v>454</v>
       </c>
       <c r="E451" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10698,7 +10776,7 @@
         <v>455</v>
       </c>
       <c r="E452" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10715,7 +10793,7 @@
         <v>456</v>
       </c>
       <c r="E453" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -10732,7 +10810,7 @@
         <v>457</v>
       </c>
       <c r="E454" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -10749,7 +10827,7 @@
         <v>458</v>
       </c>
       <c r="E455" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -10766,7 +10844,7 @@
         <v>459</v>
       </c>
       <c r="E456" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -10783,7 +10861,7 @@
         <v>460</v>
       </c>
       <c r="E457" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -10800,7 +10878,7 @@
         <v>461</v>
       </c>
       <c r="E458" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10817,7 +10895,7 @@
         <v>462</v>
       </c>
       <c r="E459" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -10834,7 +10912,7 @@
         <v>463</v>
       </c>
       <c r="E460" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -10851,7 +10929,7 @@
         <v>464</v>
       </c>
       <c r="E461" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -10868,7 +10946,7 @@
         <v>465</v>
       </c>
       <c r="E462" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10885,7 +10963,7 @@
         <v>466</v>
       </c>
       <c r="E463" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -10902,7 +10980,7 @@
         <v>467</v>
       </c>
       <c r="E464" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -10919,7 +10997,7 @@
         <v>468</v>
       </c>
       <c r="E465" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -10936,7 +11014,7 @@
         <v>469</v>
       </c>
       <c r="E466" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -10953,7 +11031,7 @@
         <v>470</v>
       </c>
       <c r="E467" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -10970,7 +11048,7 @@
         <v>471</v>
       </c>
       <c r="E468" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -10987,7 +11065,7 @@
         <v>472</v>
       </c>
       <c r="E469" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11004,7 +11082,7 @@
         <v>473</v>
       </c>
       <c r="E470" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11021,7 +11099,7 @@
         <v>474</v>
       </c>
       <c r="E471" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11038,7 +11116,7 @@
         <v>475</v>
       </c>
       <c r="E472" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11055,7 +11133,7 @@
         <v>476</v>
       </c>
       <c r="E473" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11072,7 +11150,7 @@
         <v>477</v>
       </c>
       <c r="E474" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11089,7 +11167,7 @@
         <v>478</v>
       </c>
       <c r="E475" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11106,7 +11184,7 @@
         <v>479</v>
       </c>
       <c r="E476" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11123,7 +11201,7 @@
         <v>480</v>
       </c>
       <c r="E477" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11140,7 +11218,7 @@
         <v>481</v>
       </c>
       <c r="E478" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11157,7 +11235,7 @@
         <v>482</v>
       </c>
       <c r="E479" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11174,7 +11252,7 @@
         <v>483</v>
       </c>
       <c r="E480" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11191,7 +11269,7 @@
         <v>484</v>
       </c>
       <c r="E481" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11208,7 +11286,7 @@
         <v>485</v>
       </c>
       <c r="E482" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11225,7 +11303,7 @@
         <v>486</v>
       </c>
       <c r="E483" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11242,7 +11320,7 @@
         <v>487</v>
       </c>
       <c r="E484" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11259,7 +11337,7 @@
         <v>488</v>
       </c>
       <c r="E485" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11276,7 +11354,7 @@
         <v>489</v>
       </c>
       <c r="E486" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11293,7 +11371,7 @@
         <v>490</v>
       </c>
       <c r="E487" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11310,7 +11388,7 @@
         <v>491</v>
       </c>
       <c r="E488" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11327,7 +11405,7 @@
         <v>492</v>
       </c>
       <c r="E489" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11344,7 +11422,7 @@
         <v>493</v>
       </c>
       <c r="E490" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11361,7 +11439,7 @@
         <v>494</v>
       </c>
       <c r="E491" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11378,7 +11456,7 @@
         <v>495</v>
       </c>
       <c r="E492" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11395,7 +11473,7 @@
         <v>496</v>
       </c>
       <c r="E493" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11412,7 +11490,7 @@
         <v>497</v>
       </c>
       <c r="E494" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11429,7 +11507,7 @@
         <v>498</v>
       </c>
       <c r="E495" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11446,7 +11524,7 @@
         <v>499</v>
       </c>
       <c r="E496" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11463,7 +11541,7 @@
         <v>500</v>
       </c>
       <c r="E497" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11480,7 +11558,7 @@
         <v>501</v>
       </c>
       <c r="E498" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11497,7 +11575,228 @@
         <v>502</v>
       </c>
       <c r="E499" t="s">
-        <v>879</v>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>4</v>
+      </c>
+      <c r="C500" t="s">
+        <v>4</v>
+      </c>
+      <c r="D500" t="s">
+        <v>503</v>
+      </c>
+      <c r="E500" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>4</v>
+      </c>
+      <c r="C501" t="s">
+        <v>4</v>
+      </c>
+      <c r="D501" t="s">
+        <v>504</v>
+      </c>
+      <c r="E501" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>4</v>
+      </c>
+      <c r="C502" t="s">
+        <v>4</v>
+      </c>
+      <c r="D502" t="s">
+        <v>505</v>
+      </c>
+      <c r="E502" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>4</v>
+      </c>
+      <c r="C503" t="s">
+        <v>4</v>
+      </c>
+      <c r="D503" t="s">
+        <v>506</v>
+      </c>
+      <c r="E503" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>4</v>
+      </c>
+      <c r="C504" t="s">
+        <v>4</v>
+      </c>
+      <c r="D504" t="s">
+        <v>507</v>
+      </c>
+      <c r="E504" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>4</v>
+      </c>
+      <c r="C505" t="s">
+        <v>4</v>
+      </c>
+      <c r="D505" t="s">
+        <v>508</v>
+      </c>
+      <c r="E505" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>4</v>
+      </c>
+      <c r="C506" t="s">
+        <v>4</v>
+      </c>
+      <c r="D506" t="s">
+        <v>509</v>
+      </c>
+      <c r="E506" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>4</v>
+      </c>
+      <c r="C507" t="s">
+        <v>4</v>
+      </c>
+      <c r="D507" t="s">
+        <v>510</v>
+      </c>
+      <c r="E507" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>4</v>
+      </c>
+      <c r="C508" t="s">
+        <v>4</v>
+      </c>
+      <c r="D508" t="s">
+        <v>511</v>
+      </c>
+      <c r="E508" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>4</v>
+      </c>
+      <c r="C509" t="s">
+        <v>4</v>
+      </c>
+      <c r="D509" t="s">
+        <v>512</v>
+      </c>
+      <c r="E509" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>4</v>
+      </c>
+      <c r="C510" t="s">
+        <v>4</v>
+      </c>
+      <c r="D510" t="s">
+        <v>513</v>
+      </c>
+      <c r="E510" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>4</v>
+      </c>
+      <c r="C511" t="s">
+        <v>4</v>
+      </c>
+      <c r="D511" t="s">
+        <v>514</v>
+      </c>
+      <c r="E511" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>4</v>
+      </c>
+      <c r="C512" t="s">
+        <v>4</v>
+      </c>
+      <c r="D512" t="s">
+        <v>515</v>
+      </c>
+      <c r="E512" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>
